--- a/experiment_summary.xlsx
+++ b/experiment_summary.xlsx
@@ -777,7 +777,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Relative lift = (T − C) / C</t>
+          <t>Relative lift = (T ÃƒÂ¢Ã‹â€ Ã¢â‚¬â„¢ C) / C</t>
         </is>
       </c>
     </row>
